--- a/output/proc_1_NHSS/VIF_NHSS.xlsx
+++ b/output/proc_1_NHSS/VIF_NHSS.xlsx
@@ -342,37 +342,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.91002856029245</v>
+        <v>4.85710030105084</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.63679821503202</v>
+        <v>2.29806616604013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.65313425792146</v>
+        <v>7.23794521699157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.73934857235294</v>
+        <v>3.93434262197864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.69965694810438</v>
+        <v>4.76380389296696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.10274882516097</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.35193817178473</v>
+        <v>1.99203903661893</v>
       </c>
     </row>
   </sheetData>
@@ -391,37 +386,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.90574534702995</v>
+        <v>4.87477027960459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.71887821057463</v>
+        <v>2.30412078878102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.72346986058173</v>
+        <v>7.38847255076552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.89390675967769</v>
+        <v>4.30866246722926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.93006776900492</v>
+        <v>1.88120132825269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.35823024414448</v>
+        <v>3.56397999754844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.71894892419577</v>
+        <v>2.09056790748145</v>
       </c>
     </row>
   </sheetData>
@@ -440,37 +435,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.90574534702995</v>
+        <v>4.87477027960459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.71887821057462</v>
+        <v>2.30412078878102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.72346986058173</v>
+        <v>7.3884725507655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.89390675967769</v>
+        <v>4.30866246722926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.93006776900492</v>
+        <v>1.88120132825269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.35823024414448</v>
+        <v>3.56397999754844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.71894892419577</v>
+        <v>2.09056790748145</v>
       </c>
     </row>
   </sheetData>

--- a/output/proc_1_NHSS/VIF_NHSS.xlsx
+++ b/output/proc_1_NHSS/VIF_NHSS.xlsx
@@ -11,6 +11,38 @@
     <sheet name="chronicratio" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">car..vif.lm.li_EqRan_NHSS..tmpYname....tmp..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,32 +373,58 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>4.85710030105084</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.29806616604013</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>7.23794521699157</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>3.93434262197864</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>4.76380389296696</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.99203903661893</v>
       </c>
     </row>
@@ -385,37 +443,66 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>4.87477027960459</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.30412078878102</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>7.38847255076552</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>4.30866246722926</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.88120132825269</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>3.56397999754844</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
         <v>2.09056790748145</v>
       </c>
     </row>
@@ -434,37 +521,66 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>4.87477027960459</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.30412078878102</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>7.3884725507655</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>4.30866246722926</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.88120132825269</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>3.56397999754844</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
         <v>2.09056790748145</v>
       </c>
     </row>
